--- a/Use Cases/Usecase Algemeen.xlsx
+++ b/Use Cases/Usecase Algemeen.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>Naam</t>
   </si>
@@ -72,34 +72,12 @@
     <t>Melding als verkeerd is. Veld automatisch leeg.</t>
   </si>
   <si>
-    <t xml:space="preserve">Medewerker selecteert „Klant”
-Voert naam van in
-Kan gegevens zien van de Klant en kan ook de facturens zien van deze klant. </t>
-  </si>
-  <si>
-    <t>Melding als het toevoegen of bewerken niet goed is gegaan</t>
-  </si>
-  <si>
     <t>Moet snel kunnen werken en makkelijk te bedienen zijn.</t>
   </si>
   <si>
-    <t>Medewerker kan gegevens opzoeken van klanten</t>
-  </si>
-  <si>
-    <t>Melding als het zoeken niet goed is gegaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gegevens van Klanten zijn succesvol verschenen. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Medewerker kan gegevens zien van de afdeling en kan dit Bewerken, Toevoegen of inactief maken. </t>
   </si>
   <si>
-    <t xml:space="preserve">Medewerker selecteert „Klant”
-Voert naam van Klant in
-Kan gegevens zien van de Klant en kan ook de facturens zien van deze klant. </t>
-  </si>
-  <si>
     <t>Klanten Bewerken</t>
   </si>
   <si>
@@ -112,15 +90,7 @@
     <t xml:space="preserve">Medewerker kan gegevens zien van de Projecten en kan dit Bewerken, Toevoegen of inactief maken. </t>
   </si>
   <si>
-    <t>Medewerker selecteert „Project”
-Voert naam van Project in
-Kan gegevens zien van het Project en</t>
-  </si>
-  <si>
     <t>Sales, Financien, Development, Database</t>
-  </si>
-  <si>
-    <t>Sales, Financien,  Database</t>
   </si>
   <si>
     <t>Development, Database</t>
@@ -155,7 +125,34 @@
     <t>Gegevens van facturen zijn succesvol bewerkt of toegevoegd</t>
   </si>
   <si>
-    <t>Gegevens van Projecten zijn succesvol bewerkt of toegevoegd</t>
+    <t>Medewerker kan gegevens Bewerken van klanten</t>
+  </si>
+  <si>
+    <t>Melding als het Bewerken niet goed is gegaan</t>
+  </si>
+  <si>
+    <t>Gegevens van Projecten zijn succesvol bewerkt of toegevoegd.</t>
+  </si>
+  <si>
+    <t>Melding als het toevoegen of bewerken niet goed is gegaan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medewerker selecteert „Facturens Bewerken”
+Voert cijfers in van Factuur
+Kan gegevens zien van de Klant en kan ook gegevens zien van de klant. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gegevens van Klanten zijn succesvol Bewerkt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medewerker selecteert „Klant Bewerken”
+Voert naam van Klant in
+Kan gegevens Bewerken van de Klant en kan ook de facturens zien van deze klant. </t>
+  </si>
+  <si>
+    <t>Medewerker selecteert „Project”
+Voert naam van Project in
+Kan gegevens Bewerken van het Project</t>
   </si>
 </sst>
 </file>
@@ -602,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -625,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -641,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -697,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -713,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -721,15 +718,15 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="42">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -737,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -745,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -753,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -769,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -785,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -793,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="42">
@@ -801,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -809,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -817,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -825,7 +822,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -841,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -857,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -865,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="42">
@@ -873,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -881,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -889,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -897,7 +894,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -913,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -929,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -937,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="42">
@@ -945,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -953,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -961,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -969,12 +966,11 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
